--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E4C6F-7A73-4E6D-BFD3-D559DFB2D04C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125F8D2-0924-4916-A70F-9CC4B59FA3AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Descritpion</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Analyse avec benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin de la version 0.1 des scenarios </t>
+  </si>
+  <si>
+    <t>Creation de la base du mvc</t>
+  </si>
+  <si>
+    <t>Example de MVC sur moodle</t>
   </si>
 </sst>
 </file>
@@ -457,7 +466,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +476,7 @@
     <col min="3" max="3" width="17.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,17 +536,42 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44230</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="E4" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.4722222222220989E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44230</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="E5" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125F8D2-0924-4916-A70F-9CC4B59FA3AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB37062-1EC6-48EA-A2AA-0F60F23CC507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Descritpion</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Example de MVC sur moodle</t>
+  </si>
+  <si>
+    <t>Avancement du document d'analyse</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +578,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.0202020999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E6" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB37062-1EC6-48EA-A2AA-0F60F23CC507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0658A95-F44D-4622-A7BC-89AD1BFA4675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Descritpion</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Avancement du document d'analyse</t>
+  </si>
+  <si>
+    <t>Creation des zoning</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -187,17 +211,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>5.0202020999999997</v>
+        <v>44232</v>
       </c>
       <c r="C6" s="5">
         <v>0.45833333333333331</v>
@@ -596,10 +620,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44233</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="E7" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,6 +1218,9 @@
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0658A95-F44D-4622-A7BC-89AD1BFA4675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6AC1A-D02D-442A-A73E-84DB159A9250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Descritpion</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Creation des zoning</t>
+  </si>
+  <si>
+    <t>Debut des maquettes</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +641,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44234</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="E8" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6AC1A-D02D-442A-A73E-84DB159A9250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2A475-267A-4A96-B381-7152E361AFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Descritpion</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Debut des maquettes</t>
+  </si>
+  <si>
+    <t>Avancement des maquettes</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +662,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44234</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.89930555555555547</v>
+      </c>
       <c r="E9" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2A475-267A-4A96-B381-7152E361AFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E13984-8E6D-4B08-8F91-AD3A1076A810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Descritpion</t>
   </si>
@@ -158,7 +158,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44235</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="E10" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E13984-8E6D-4B08-8F91-AD3A1076A810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D1D4E-D71C-42C2-9B2E-606BEC1B9ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Descritpion</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Avancement des maquettes</t>
+  </si>
+  <si>
+    <t>Fin de la version 0.1 des maquettes</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -499,7 +502,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +701,21 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44235</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.73611111111111116</v>
+      </c>
       <c r="E11" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D1D4E-D71C-42C2-9B2E-606BEC1B9ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF20A5-7B12-4755-9BA0-D9D84D6C1B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Descritpion</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Fin de la version 0.1 des maquettes</t>
+  </si>
+  <si>
+    <t>Added mockups to project folder</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -502,7 +505,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +722,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44237</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E12" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF20A5-7B12-4755-9BA0-D9D84D6C1B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88AF88-06C1-435D-80C1-7C31E6E0B712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Descritpion</t>
   </si>
@@ -84,7 +84,10 @@
     <t>Fin de la version 0.1 des maquettes</t>
   </si>
   <si>
-    <t>Added mockups to project folder</t>
+    <t>Ajout des maquettes dans le dossier de projet</t>
+  </si>
+  <si>
+    <t>Ajout de parametres et verification d'erreurs dans la template</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +743,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44237</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="E13" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.2083333333333259E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88AF88-06C1-435D-80C1-7C31E6E0B712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4AD4D3-6EF9-4EDF-B085-AEAF25E9D01F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Descritpion</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Ajout de parametres et verification d'erreurs dans la template</t>
+  </si>
+  <si>
+    <t>Mise en commun et avancement sur l'analyse</t>
+  </si>
+  <si>
+    <t>Mise en composants des cards</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -508,7 +514,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,17 +767,39 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44239</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E14" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44239</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E15" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.1249999999999944E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4AD4D3-6EF9-4EDF-B085-AEAF25E9D01F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7931AB52-27B2-4C9C-9860-D41EA4B1A05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Descritpion</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Mise en composants des cards</t>
+  </si>
+  <si>
+    <t>Ajout de lecture simple pour les posts et implementation dans trending</t>
+  </si>
+  <si>
+    <t>php.net &amp; w3schools.com</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -514,7 +520,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +809,24 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44240</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E16" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7931AB52-27B2-4C9C-9860-D41EA4B1A05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D23E6-61E5-47E7-829A-FF16EF84AF09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Descritpion</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>php.net &amp; w3schools.com</t>
+  </si>
+  <si>
+    <t>Resolution temporaire des problemes avec masonry</t>
+  </si>
+  <si>
+    <t>masonry.desandro.com</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,110 +835,124 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44240</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.625</v>
+      </c>
       <c r="E17" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="E18" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="E21" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="E22" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="E26" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="E27" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="E28" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="E29" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="E30" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="E31" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="E32" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D23E6-61E5-47E7-829A-FF16EF84AF09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB3FD5E-3426-4618-A2BD-2F39733EAA7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Descritpion</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>masonry.desandro.com</t>
+  </si>
+  <si>
+    <t>Ajout de l'authentification</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +860,21 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44240</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.93402777777777779</v>
+      </c>
       <c r="E18" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB3FD5E-3426-4618-A2BD-2F39733EAA7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB80B-0E59-4E54-BAFC-1E44D9E7EFAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Descritpion</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Ajout de l'authentification</t>
+  </si>
+  <si>
+    <t>Creation et implementation de l'ajout d'utilisateurs + stylization des vues</t>
+  </si>
+  <si>
+    <t>getbootstrap.com/docs/5.0/ &amp; php.net</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,9 +884,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44241</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="E19" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB80B-0E59-4E54-BAFC-1E44D9E7EFAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634FBA7-B0B3-4521-A953-3A9CBC636A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Descritpion</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>getbootstrap.com/docs/5.0/ &amp; php.net</t>
+  </si>
+  <si>
+    <t>Avancement de l'analyse</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -535,7 +538,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,9 +908,21 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44242</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="E20" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634FBA7-B0B3-4521-A953-3A9CBC636A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF33251-1FA8-4834-9EF8-ECDF0AAE34FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Descritpion</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Avancement de l'analyse</t>
+  </si>
+  <si>
+    <t>Debut de la vue des posts</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,10 +929,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44242</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="E21" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.7777777777777846E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF33251-1FA8-4834-9EF8-ECDF0AAE34FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC9990-3B56-4335-9584-D881B4BC2553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Descritpion</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Debut de la vue des posts</t>
+  </si>
+  <si>
+    <t>Avancement de la vue posts</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -541,7 +544,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +950,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44242</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.85069444444444453</v>
+      </c>
       <c r="E22" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC9990-3B56-4335-9584-D881B4BC2553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1062F6-441E-4000-951F-D891A6875B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Descritpion</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Avancement de la vue posts</t>
+  </si>
+  <si>
+    <t>Creation d'une vue nouveau post et essaie de requetes post en javascript</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -544,7 +547,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +971,21 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44244</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.9027777777777735E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1062F6-441E-4000-951F-D891A6875B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D9021B-63A2-447D-94EC-5DDD725C4C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Descritpion</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Creation d'une vue nouveau post et essaie de requetes post en javascript</t>
+  </si>
+  <si>
+    <t>api.jquery.com/</t>
+  </si>
+  <si>
+    <t>Essaie de requetes post avec jquery</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -547,7 +553,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +995,24 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44244</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D9021B-63A2-447D-94EC-5DDD725C4C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172EB357-8CC4-499B-8F27-D0EB02C1F6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Descritpion</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Essaie de requetes post avec jquery</t>
+  </si>
+  <si>
+    <t>Essaie d'upload de fichiers</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,10 +1019,21 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44246</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.51736111111111105</v>
+      </c>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.9444444444444364E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172EB357-8CC4-499B-8F27-D0EB02C1F6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E5540-4D49-4402-80B1-DAB9D7A1A416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Descritpion</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Essaie d'upload de fichiers</t>
+  </si>
+  <si>
+    <t>Commentaires de code et deobfuscation</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -556,7 +559,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1040,21 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44248</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="E26" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.9027777777777846E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E5540-4D49-4402-80B1-DAB9D7A1A416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F023EC1-4A6B-484B-9319-45F7E08C3E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Descritpion</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Commentaires de code et deobfuscation</t>
+  </si>
+  <si>
+    <t>php.net</t>
+  </si>
+  <si>
+    <t>Recherche sur l'utilisation de gd2</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1064,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44248</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.75</v>
+      </c>
       <c r="E27" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F023EC1-4A6B-484B-9319-45F7E08C3E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4FF96-511E-4617-AA43-57F0D77A0BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Descritpion</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Recherche sur l'utilisation de gd2</t>
+  </si>
+  <si>
+    <t>https://www.smashingmagazine.com/2018/01/drag-drop-file-uploader-vanilla-js/</t>
+  </si>
+  <si>
+    <t>Logique de creation de post avec jquery</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1091,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44249</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E28" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4FF96-511E-4617-AA43-57F0D77A0BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9EE1F-A5DE-4550-B866-46E3D82488EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Descritpion</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Logique de creation de post avec jquery</t>
+  </si>
+  <si>
+    <t>Preview des images lors de la creation de post</t>
   </si>
 </sst>
 </file>
@@ -571,17 +574,17 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,10 +1115,21 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44249</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="E29" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9EE1F-A5DE-4550-B866-46E3D82488EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C6EF9-79DD-4912-A235-C28623556E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Descritpion</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Preview des images lors de la creation de post</t>
+  </si>
+  <si>
+    <t>Ajout de controls pour la creation de posts</t>
+  </si>
+  <si>
+    <t>developer.mozilla.org, javascript.info, regex101.com</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1139,24 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44251</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E30" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C6EF9-79DD-4912-A235-C28623556E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B59B6C1-335E-451E-8E71-5621C762C967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Descritpion</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>developer.mozilla.org, javascript.info, regex101.com</t>
+  </si>
+  <si>
+    <t>Ajout de controls pour effacer des images</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,10 +1163,21 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44253</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="E31" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.2083333333333259E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B59B6C1-335E-451E-8E71-5621C762C967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183743E-0D7B-4D77-923D-EE58BA043AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Descritpion</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Ajout de controls pour effacer des images</t>
+  </si>
+  <si>
+    <t>Ajout de la structure de la vue d'edition</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +248,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -308,8 +314,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E2:E100)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
@@ -583,7 +590,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1188,21 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="A32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44228</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="E32" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.9027777777777735E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1597,7 +1615,10 @@
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="2"/>
+      <c r="E101" s="9">
+        <f>SUM(E2:E100)</f>
+        <v>1.7812499999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183743E-0D7B-4D77-923D-EE58BA043AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85580C5-1006-42E9-99BC-530AA644411D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Descritpion</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Ajout de la structure de la vue d'edition</t>
+  </si>
+  <si>
+    <t>Essaie d'ajout des images dans l'edition</t>
+  </si>
+  <si>
+    <t>essayer avec fetch</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,98 +1211,112 @@
         <v>5.9027777777777735E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44228</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E33" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
@@ -1617,7 +1637,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>1.7812499999999998</v>
+        <v>1.8194444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85580C5-1006-42E9-99BC-530AA644411D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C2DBF-F466-437A-A0D8-AE14D33596BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>Essaie d'ajout des images dans l'edition</t>
   </si>
   <si>
-    <t>essayer avec fetch</t>
+    <t>Traduction des taches en issue pour le sprint 1 et aide javascript pour benjamin</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,9 +1233,18 @@
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="B34" s="6">
+        <v>44230</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E34" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1646,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>1.8194444444444442</v>
+        <v>1.8819444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C2DBF-F466-437A-A0D8-AE14D33596BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A99C4D-239F-4D03-8970-162122027EEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Descritpion</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Traduction des taches en issue pour le sprint 1 et aide javascript pour benjamin</t>
+  </si>
+  <si>
+    <t>Avancement de l'edition de posts</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,9 +1251,21 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44230</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="E35" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.5972222222222321E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,7 +1661,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>1.8819444444444442</v>
+        <v>1.9479166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A99C4D-239F-4D03-8970-162122027EEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F2BD6B-DC41-48AC-B7E1-FAB66432FA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36450" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Descritpion</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Avancement de l'edition de posts</t>
+  </si>
+  <si>
+    <t>Edition de posts fonctionnel</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="6">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="C32" s="5">
         <v>0.34375</v>
@@ -1219,7 +1222,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="6">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="C33" s="5">
         <v>0.40972222222222227</v>
@@ -1237,7 +1240,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="6">
-        <v>44230</v>
+        <v>44258</v>
       </c>
       <c r="C34" s="5">
         <v>0.44791666666666669</v>
@@ -1255,7 +1258,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="6">
-        <v>44230</v>
+        <v>44258</v>
       </c>
       <c r="C35" s="5">
         <v>0.61111111111111105</v>
@@ -1269,9 +1272,21 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44260</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="E36" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.5972222222222265E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,7 +1676,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>1.9479166666666665</v>
+        <v>2.0138888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F2BD6B-DC41-48AC-B7E1-FAB66432FA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B62784-669B-460B-8F6C-6CA43ABB4E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Descritpion</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Edition de posts fonctionnel</t>
+  </si>
+  <si>
+    <t>Gestion de projet, bug fix et prevention XSS</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,9 +1293,21 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44263</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E37" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,7 +1691,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>2.0138888888888888</v>
+        <v>2.1180555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B62784-669B-460B-8F6C-6CA43ABB4E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4B2C3D-C453-4228-9437-3277AAF2BCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Descritpion</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Gestion de projet, bug fix et prevention XSS</t>
+  </si>
+  <si>
+    <t>Preparation du sprint 3 et debut de debuggage</t>
+  </si>
+  <si>
+    <t>Debut des tests</t>
+  </si>
+  <si>
+    <t>Fin des tests et creation des taches liees</t>
+  </si>
+  <si>
+    <t>Fix pour les post query et aide pour d'autres groupes</t>
+  </si>
+  <si>
+    <t>https://github.com/Mondotosz/Web-Observation/wiki/1.0.0_test_1</t>
+  </si>
+  <si>
+    <t>Correction de bugs</t>
   </si>
 </sst>
 </file>
@@ -190,10 +208,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,8 +281,12 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -604,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1251,7 @@
         <v>5.9027777777777735E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -1256,7 +1287,7 @@
         <v>6.2499999999999944E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
@@ -1274,7 +1305,7 @@
         <v>6.5972222222222321E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>47</v>
       </c>
@@ -1292,7 +1323,7 @@
         <v>6.5972222222222265E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>48</v>
       </c>
@@ -1310,67 +1341,130 @@
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44265</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E38" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44267</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E39" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44269</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.75</v>
+      </c>
       <c r="E40" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44270</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="E41" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.10763888888888895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44272</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E42" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
@@ -1691,14 +1785,17 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>2.1180555555555554</v>
+        <v>2.5486111111111112</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F40" r:id="rId1" xr:uid="{F1D4AA51-2306-4CB2-AF74-6581887F08F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4B2C3D-C453-4228-9437-3277AAF2BCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AAC14-5DD5-4964-8F62-4DB9E3BB3242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4035" yWindow="645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Descritpion</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Correction de bugs</t>
+  </si>
+  <si>
+    <t>Added clarity to controls in posts</t>
+  </si>
+  <si>
+    <t>Casse tete ajax avec benjamin</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,15 +1441,39 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44274</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E43" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44277</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="E44" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10763888888888895</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,7 +1815,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>2.5486111111111112</v>
+        <v>2.7222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan.AUGSBURGER\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Downloads\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AAC14-5DD5-4964-8F62-4DB9E3BB3242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D5B95-0E9D-4B15-A73C-215D0A8EBC51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15435" yWindow="0" windowWidth="36165" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Descritpion</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>Casse tete ajax avec benjamin</t>
+  </si>
+  <si>
+    <t>Fin de la documentation pour le rendu</t>
+  </si>
+  <si>
+    <t>Commentaire et refactor global du code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise a jour du layout des posts </t>
+  </si>
+  <si>
+    <t>Bug fixes et creation de fichiers pour la documentation</t>
+  </si>
+  <si>
+    <t>https://github.com/emad-elsaid/dirtree</t>
   </si>
 </sst>
 </file>
@@ -300,7 +315,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -315,24 +344,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -362,15 +377,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E2:E100)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -641,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,27 +1492,78 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44279</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E45" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44281</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E46" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44284</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="E47" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10763888888888895</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44286</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E48" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1881,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>2.7222222222222223</v>
+        <v>3.0277777777777781</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookKAR.xlsx
+++ b/doc/logBook/logBookKAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Downloads\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Documents\Github\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D5B95-0E9D-4B15-A73C-215D0A8EBC51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE953B67-02B4-4ED7-914A-1507B2BBB549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15435" yWindow="0" windowWidth="36165" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Descritpion</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>https://github.com/emad-elsaid/dirtree</t>
+  </si>
+  <si>
+    <t>Remplissage de la documentation</t>
   </si>
 </sst>
 </file>
@@ -315,10 +318,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -333,21 +350,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -377,15 +380,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E2:E100)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6">
         <v>44286</v>
@@ -1566,97 +1569,109 @@
         <v>6.597222222222221E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44286</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="E49" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+        <v>0.24305555555555558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
@@ -1881,7 +1896,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f>SUM(E2:E100)</f>
-        <v>3.0277777777777781</v>
+        <v>3.2708333333333339</v>
       </c>
     </row>
   </sheetData>
